--- a/InventoryReport.xlsx
+++ b/InventoryReport.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
-  <si>
-    <t>INVENTORY_DATA_02-21-2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+  <si>
+    <t>INVENTORY_DATA_04-16-2023</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -37,24 +37,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 990 DT I5
-SERIAL                      : GJB22R1
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-2400 CPU @ 3.10GH
-STORAGE                     : 500 GB HDD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 1069-743
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W2-2-1-A
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE E5440 I5
 SERIAL                      : 7lqgl32
 CODITION_CODE               : 4B
@@ -67,8 +49,8 @@
 BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 1352-19
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
-PHYSICAL_LOCATION           : R2-1-4-C
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : R2-1-2-B
 LCD_FUNCTIONALITY           : PIXL FAILED</t>
   </si>
   <si>
@@ -77,7 +59,7 @@
 SERIAL                      : 5t84k12
 CODITION_CODE               : 4B-
 PROCESSOR                   : Intel(R) Core(TM) i5-4310U CPU @ 2.00GHz
-STORAGE                     : Err GB SSD
+STORAGE                     : 
 MEMORY_TOTAL                : 8 GB
 GRAPHICS                    : 
 SCREEN_SIZE                 : 14.0in
@@ -86,25 +68,7 @@
 PURCHASE_ORDER_ID           : 1955-171
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : R2-1-4-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : LENOVO
-MODEL                       : THINKPAD E520 I3
-SERIAL                      : 1s1143ADUR9H0ZVR
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i3-2350M CPU @ 2.30GHz
-STORAGE                     : 320 GB HDD
-MEMORY_TOTAL                : 4 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : 3 (Fair Health 40-59%)
-PURCHASE_ORDER_ID           : 2165-174
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY 6
-LCD_FUNCTIONALITY           : PIXL FAILED</t>
+PHYSICAL_LOCATION           : R2-1-2-C</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -120,27 +84,9 @@
 BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 2432-72
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR CART-2
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY
 CASE_SCRATCHES              : PIXL FAILED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 3450 I5
-SERIAL                      : 7g4fw32
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i5-5200U CPU @ 2.20GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 4 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 2568-38
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY 5
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -198,7 +144,7 @@
 PURCHASE_ORDER_ID           : 2949-10
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : DEPROVISIONED CART</t>
+PHYSICAL_LOCATION           : w2-1-1-b</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -215,7 +161,7 @@
 PURCHASE_ORDER_ID           : 3180-4
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : R2-1-7-C
+PHYSICAL_LOCATION           : R2-1-4-E
 WIFI_FUNCTIONALITY          : WIFI FAILED
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -226,18 +172,36 @@
 SERIAL                      : 9KSJBG2
 CODITION_CODE               : 3B
 PROCESSOR                   : Intel(R) Core(TM) i7-6820HQ CPU @ 2.70GHz
-STORAGE                     : San GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
+STORAGE                     : 256 GB SSD
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 14.0in
+RESOLUTION                  : 1920 x 1080
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 3298-128
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-B
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
+PHYSICAL_LOCATION           : R2-1-6-A
+CASE_SCRATCHES              : Scuffs- Scratches Minor
+PALMREST_COSMETICS          : Worn Palmrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : LATITUDE E7250 I5
+SERIAL                      : 6cb1262
+CODITION_CODE               : 8B
+PROCESSOR                   : Intel(R) Core(TM) i5-5300U CPU @ 2.30GHz
+STORAGE                     : 256 GB SSD
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 12.6in
+RESOLUTION                  : 1366 x 768
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
+PURCHASE_ORDER_ID           : 3357-154
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY
+CASE_SCRATCHES              : Scratches Major</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -254,7 +218,7 @@
 PURCHASE_ORDER_ID           : 3357-158
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : R2-1-2-A
+PHYSICAL_LOCATION           : R2-1-1-A
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -272,7 +236,7 @@
 PURCHASE_ORDER_ID           : 3357-453
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : R2-1-7-B
+PHYSICAL_LOCATION           : R2-1-6-A
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -281,7 +245,7 @@
 SERIAL                      : BZN6842
 CODITION_CODE               : 5C
 PROCESSOR                   : Intel(R) Pentium(R) CPU G3240T @ 2.70GHz
-STORAGE                     : NO  GB HDD
+STORAGE                     : 500 GB HDD
 MEMORY_TOTAL                : 4 GB
 GRAPHICS                    : 
 SCREEN_SIZE                 : 0.0in
@@ -289,8 +253,8 @@
 BATTERY_HEALTH              : N/A
 PURCHASE_ORDER_ID           : 3325-116
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR CART-4
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY
 COMPUTER_FEET               : Missing Face Plate
 ADDITIONAL_COMMENTS         : ; ;Scuffs- Scratches Minor;;; ;; ; ;LAN PASSED;NO RESULT;WIFI NOT DETECTED;;NO RESULT;Good USB;Good Fan;NO RESULT;NO RESULT;</t>
   </si>
@@ -309,7 +273,26 @@
 PURCHASE_ORDER_ID           : 3401-10
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000</t>
+PHYSICAL_LOCATION           : R1-1-4-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : OPTIPLEX 7450 AIO I5 T
+SERIAL                      : 3R1MDH2
+CODITION_CODE               : 4B
+PROCESSOR                   : Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz
+STORAGE                     : 500 GB HDD
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 23.1in
+RESOLUTION                  : 1920 x 1080
+BATTERY_HEALTH              : N/A
+PURCHASE_ORDER_ID           : 3421-52
+SALES_ORDER_ID              : 23966-7
+VIRTUAL_WAREHOUSE           : COMPLETE
+PHYSICAL_LOCATION           : MAKE READY
+CASE_SCRATCHES              : Scuffs- Scratches Minor
+LCD_COSMETICS               : Scratches on Screen(Minor)</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -325,7 +308,7 @@
 BATTERY_HEALTH              : N/A
 PURCHASE_ORDER_ID           : 3443-275
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
+VIRTUAL_WAREHOUSE           : eBay
 PHYSICAL_LOCATION           : W2-3-1-B
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 CRACKS_AND_DENTS            : Minor Dents</t>
@@ -365,7 +348,7 @@
 PURCHASE_ORDER_ID           : 3527-167
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-6-A
+PHYSICAL_LOCATION           : R2-1-3-D
 LCD_COSMETICS               : Scratches On Screen (Major)
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -402,27 +385,10 @@
 PURCHASE_ORDER_ID           : 3560-38
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : BOX-1000
+PHYSICAL_LOCATION           : R2-1-3-E
 CASE_SCRATCHES              : Missing Screws
 LCD_COSMETICS               : Scuffs- Scratches Minor
 ADDITIONAL_COMMENTS         : ** WILL ONLY CHARGE WITH A USB-C ADAPTER ** ** MUST SHIP UNIT WITH A 130W USB-C ADAPTER! **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : LENOVO
-MODEL                       : THINKCENTRE M900 SFF I5
-SERIAL                      : 1S10FGS03000MJ056CB0
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-6500 CPU @ 3.20GHz
-STORAGE                     : 500 GB HDD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 3610-3
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY 6</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -439,7 +405,7 @@
 PURCHASE_ORDER_ID           : 3587-59
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-2-C
+PHYSICAL_LOCATION           : R2-1-1-B
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -458,28 +424,8 @@
 PURCHASE_ORDER_ID           : 3587-141
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-4-D
+PHYSICAL_LOCATION           : R2-1-2-C
 WIFI_FUNCTIONALITY          : WIFI FAILED
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E5570 I5
-SERIAL                      : JVJ5RF2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-6300U CPU @ 2.40GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 4 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 3587-167
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-C
-LCD_FUNCTIONALITY           : PIXL FAILED
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -498,7 +444,7 @@
 PURCHASE_ORDER_ID           : 3587-236
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-D
+PHYSICAL_LOCATION           : R2-1-4-E
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -507,7 +453,7 @@
 SERIAL                      : 9RYXZM2
 CODITION_CODE               : 3B
 PROCESSOR                   : Intel(R) Core(TM) i5-6300U CPU @ 2.40GHz
-STORAGE                     : NO  GB SSD
+STORAGE                     : 256 GB SSD
 MEMORY_TOTAL                : 4 GB
 GRAPHICS                    : 
 SCREEN_SIZE                 : 
@@ -516,7 +462,7 @@
 PURCHASE_ORDER_ID           : 3587-259
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-D
+PHYSICAL_LOCATION           : R2-1-4-E
 WIFI_FUNCTIONALITY          : WIFI FAILED
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
@@ -535,7 +481,7 @@
 PURCHASE_ORDER_ID           : 3587-261
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-2-C
+PHYSICAL_LOCATION           : R2-1-1-B
 WIFI_FUNCTIONALITY          : WIFI FAILED
 TOUCHPAD_FUNCTIONALITY      : Scratches On Screen Minor 
 CASE_SCRATCHES              : Scuffs- Scratches Minor
@@ -552,31 +498,14 @@
 GRAPHICS                    : 
 SCREEN_SIZE                 : 
 RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : N/A
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 3612-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : r2-1-2-e
+PHYSICAL_LOCATION           : R2-1-1-E
 LCD_COSMETICS               : Scratches On Screen (Major)
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : LENOVO
-MODEL                       : THINKCENTRE M900 SFF I5
-SERIAL                      : 1S10FGS03000MJ058NN4
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-6500 CPU @ 3.20GHz
-STORAGE                     : 500 GB HDD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 3610-11
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY 6</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : LENOVO
@@ -593,7 +522,7 @@
 PURCHASE_ORDER_ID           : 3632-5
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : Return Intransit</t>
+PHYSICAL_LOCATION           : w2-1-1-b</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : HP
@@ -628,8 +557,8 @@
 BATTERY_HEALTH              : N/A
 PURCHASE_ORDER_ID           : 3659-27
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
-PHYSICAL_LOCATION           : eBay 11
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : BOX 7
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 ADDITIONAL_COMMENTS         : NO POWER MISSING CPU; CPU FAN; BEZEL; HDD CADDY BAD CMOS TERMINAL</t>
   </si>
@@ -648,7 +577,7 @@
 PURCHASE_ORDER_ID           : 3870-17
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : W2-2-1-B
+PHYSICAL_LOCATION           : w2-1-1-b
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 ADDITIONAL_COMMENTS         : LOCATED IN FRONT OF QA -LT</t>
   </si>
@@ -667,7 +596,7 @@
 PURCHASE_ORDER_ID           : 3899-27
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : TEST RACK 3
+PHYSICAL_LOCATION           : w2-1-1-b
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -705,66 +634,10 @@
 PURCHASE_ORDER_ID           : 3969-25
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : r2-1-1-a
+PHYSICAL_LOCATION           : R2-1-1-C
 TOUCHPAD_FUNCTIONALITY      : Scratches On Screen(Minor)  
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5490 I5 GEN 7
-SERIAL                      : 81GPWT2
-CODITION_CODE               : 8B
-PROCESSOR                   : Intel(R) Core(TM) i5-7300U CPU @ 2.60GHz
-STORAGE                     : 256 GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 620
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 4003-11
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : Provision Cart
-WIFI_FUNCTIONALITY          : WIFI FAILED
-CASE_SCRATCHES              : Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 380 SFF
-SERIAL                      : CDN3QN1
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Celeron(R) CPU          450  @ 2.20GHz
-STORAGE                     : 250 GB HDD
-MEMORY_TOTAL                : 4 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 3989-20
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W2-2-1-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 7050 SFF I5 GEN 7
-SERIAL                      : 8y5zxm2
-CODITION_CODE               : 8C
-PROCESSOR                   : Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 
-GRAPHICS                    :  HD Graphics 630
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 3988-129
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY PALLET 1
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-CRACKS_AND_DENTS            : Minor Dents
-ADDITIONAL_COMMENTS         : NO POWER/NO POST MISSING CPU MISSING BEZEL</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : APPLE
@@ -788,24 +661,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E5570 I7
-SERIAL                      : 8XV7M72
-CODITION_CODE               : 8B
-PROCESSOR                   : Intel(R) Core(TM) i7-6600U CPU @ 2.60GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 520+Topaz XT [Radeon R7 M260/M265 / M340/M360 / M440/M445 / 530/535 / 620/625 Mobile]
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 3 (Fair Health  40-59%)
-PURCHASE_ORDER_ID           : 3945-56
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR
-TOUCHPAD_FUNCTIONALITY      : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE E5470 I5
 SERIAL                      : G10WVF2
 CODITION_CODE               : ITR
@@ -818,8 +673,8 @@
 BATTERY_HEALTH              : 2 (Good Health 60-79%)
 PURCHASE_ORDER_ID           : 4065-40
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-2
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY 7
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -838,31 +693,11 @@
 BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 4128-20
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR CART-2
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5580 I7 GEN 7
-SERIAL                      : H42K5Q2
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i7-7820HQ CPU @ 2.90GHz
-STORAGE                     : 512 GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    :  HD Graphics 630+GM107 [GeForce 940MX]
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 4199-2
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : RACK 5
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-LCD_COSMETICS               : Scratches on Screen(Minor)
-CRACKS_AND_DENTS            : Minor Dents</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -879,7 +714,7 @@
 PURCHASE_ORDER_ID           : 4199-11
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-D
+PHYSICAL_LOCATION           : R2-1-4-E
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -898,7 +733,7 @@
 PURCHASE_ORDER_ID           : 4284-61
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : R1-1-2-A
+PHYSICAL_LOCATION           : BOX-7
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -916,45 +751,8 @@
 PURCHASE_ORDER_ID           : 4403-2
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY CART
+PHYSICAL_LOCATION           : W1-2-4-C
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 7060 MFF I5 GEN 8
-SERIAL                      : G2GZ2W2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8500T CPU @ 2.10GHz
-STORAGE                     : 256 GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  UHD Graphics 630
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 4405-7
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-2-A
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E5470 I5
-SERIAL                      : dh8brc2
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i5-6200U CPU @ 2.30GHz
-STORAGE                     : 500 GB HDD
-MEMORY_TOTAL                : 4 GB
-GRAPHICS                    :  HD Graphics 520
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 4370-76
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-B
-CASE_SCRATCHES              : Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -970,7 +768,7 @@
 BATTERY_HEALTH              : N/A
 PURCHASE_ORDER_ID           : 4389-195
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
+VIRTUAL_WAREHOUSE           : eBay
 PHYSICAL_LOCATION           : W2-2-1-A
 CASE_SCRATCHES              : Scuffs- Scratches Major
 CRACKS_AND_DENTS            : Major Dents- Major Cracks</t>
@@ -1008,7 +806,7 @@
 PURCHASE_ORDER_ID           : 4438-73
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : R2-1-3-E
+PHYSICAL_LOCATION           : R2-1-2-E
 KEYBOARD_FUNCTIONALITY      : KB FAILED
 CASE_SCRATCHES              : Scratches MinorScratches Minor
 ADDITIONAL_COMMENTS         : IMIC NOT DETECTED</t>
@@ -1028,7 +826,7 @@
 PURCHASE_ORDER_ID           : 4452-17
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : R1-1-2-A
+PHYSICAL_LOCATION           : BOX-7
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -1084,7 +882,7 @@
 PURCHASE_ORDER_ID           : 4519-9
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : r2-1-2-d
+PHYSICAL_LOCATION           : R2-1-1-B
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -1102,8 +900,8 @@
 BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 4519-11
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : R2-1-4-D
+VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : R2-1-2-C
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest
 ADDITIONAL_COMMENTS         : MISSING TOUCHPAD LEFT RIGHT CLICK BUTTONS*********</t>
@@ -1114,7 +912,7 @@
 SERIAL                      : 9S1WGH2
 CODITION_CODE               : 4B-
 PROCESSOR                   : Intel(R) Core(TM) i5-6300U CPU @ 2.40GHz
-STORAGE                     : NO  GB SSD
+STORAGE                     : SK  GB SSD
 MEMORY_TOTAL                : 4 GB
 GRAPHICS                    :  HD Graphics 520
 SCREEN_SIZE                 : 12.8in
@@ -1123,27 +921,9 @@
 PURCHASE_ORDER_ID           : 4519-31
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : R2-1-3-E
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 7440 AIO I5
-SERIAL                      : b4x4ch2
-CODITION_CODE               : 4D
-PROCESSOR                   : Intel(R) Core(TM) i5-6500 CPU @ 3.20GHz
-STORAGE                     : 128 GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 530
-SCREEN_SIZE                 : 23.1in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 4482-34
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY CART
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
+PHYSICAL_LOCATION           : R2-1-2-E
+CASE_SCRATCHES              : Scuffs- Scratches Minor
+PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -1160,7 +940,7 @@
 PURCHASE_ORDER_ID           : 4545-62
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : EBAY PALLET 1
+PHYSICAL_LOCATION           : EBAY 7
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 ADDITIONAL_COMMENTS         : FRONT USB PORT DAMAGED/INOPERABLE MISSING CPU BROKEN BEZEL</t>
   </si>
@@ -1185,24 +965,6 @@
   <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : OPTIPLEX 3030 AIO I5 T
-SERIAL                      : 73ny482
-CODITION_CODE               : 8C
-PROCESSOR                   : Intel(R) Core(TM) i5-4590S CPU @ 3.00GHz
-STORAGE                     : 128 GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 4600
-SCREEN_SIZE                 : 20.1in
-RESOLUTION                  : 1440 x 900
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 4530-8
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : eBay 3
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 3030 AIO I5 T
 SERIAL                      : 16h8ch2
 CODITION_CODE               : 8C
 PROCESSOR                   : Intel(R) Core(TM) i5-4590S CPU @ 3.00GHz
@@ -1214,8 +976,8 @@
 BATTERY_HEALTH              : N/A
 PURCHASE_ORDER_ID           : 4530-63
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
-PHYSICAL_LOCATION           : W3-1-2-A
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY 3
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -1232,8 +994,8 @@
 BATTERY_HEALTH              : N/A
 PURCHASE_ORDER_ID           : 4530-64
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
-PHYSICAL_LOCATION           : W3-1-2-A
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY 3
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -1250,26 +1012,8 @@
 BATTERY_HEALTH              : N/A
 PURCHASE_ORDER_ID           : 4530-70
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
-PHYSICAL_LOCATION           : W3-1-2-A
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : LENOVO
-MODEL                       : THINKCENTRE M920Q TINY I5 G8
-SERIAL                      : 1s10rrs3k301mj096dds
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8500T CPU @ 2.10GHz
-STORAGE                     : 256 GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  UHD Graphics 630
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : N/A
-PURCHASE_ORDER_ID           : 4606-3
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-2-A
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : EBAY 3
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -1287,7 +1031,7 @@
 PURCHASE_ORDER_ID           : 4614-1
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W3-1-2-A
+PHYSICAL_LOCATION           : W1-2-4-C
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -1317,7 +1061,7 @@
 SERIAL                      : 20N9HR2
 CODITION_CODE               : 4C
 PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
-STORAGE                     : 256 GB SSD
+STORAGE                     : Err GB SSD
 MEMORY_TOTAL                : 16 GB
 GRAPHICS                    :  UHD Graphics 620
 SCREEN_SIZE                 : 15.6in
@@ -1331,44 +1075,8 @@
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
-    <t xml:space="preserve">MAKE                        : LENOVO
-MODEL                       : THINKCENTRE M920Q TINY I5 G8
-SERIAL                      : 1s10rs0014usmj0atcr3
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8500T CPU @ 2.10GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  UHD Graphics 630
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 4694-4
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-2-A
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : GENERIC
-MODEL                       : GENERIC DESKTOP
-SERIAL                      : HL7291YC101329V
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i3-2120T CPU @ 2.60GHz
-STORAGE                     : S TB HDD
-MEMORY_TOTAL                : 6 GB
-GRAPHICS                    :  HD Graphics
-SCREEN_SIZE                 : 
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 1368-2669
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W3-1-2-A
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I7 GEN 7
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : LATITUDE 5580 I7 GEN 7
 SERIAL                      : 1M8ZMQ2
 CODITION_CODE               : 4B
 PROCESSOR                   : Intel(R) Core(TM) i7-7820HQ CPU @ 2.90GHz
@@ -1381,7 +1089,7 @@
 PURCHASE_ORDER_ID           : 4772-24
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-2-C
+PHYSICAL_LOCATION           : R2-1-1-B
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -1400,7 +1108,7 @@
 PURCHASE_ORDER_ID           : 4864-23
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : R2-1-2-B
+PHYSICAL_LOCATION           : R2-1-1-A
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -1419,7 +1127,7 @@
 PURCHASE_ORDER_ID           : 4864-31
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-3-D
+PHYSICAL_LOCATION           : R2-1-2-E
 CASE_SCRATCHES              : Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -1438,7 +1146,7 @@
 BATTERY_HEALTH              : 
 PURCHASE_ORDER_ID           : 4874-16
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
+VIRTUAL_WAREHOUSE           : eBay
 PHYSICAL_LOCATION           : WHOLESALE PALLET
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
@@ -1446,7 +1154,7 @@
     <t xml:space="preserve">MAKE                        : LENOVO
 MODEL                       : THINKCENTRE M900 TINY I5
 SERIAL                      : 1S10FLS3XP0CMJ04SHP6
-CODITION_CODE               : 5C
+CODITION_CODE               : 4B
 PROCESSOR                   : Intel(R) Core(TM) i5-6500T CPU @ 2.50GHz
 STORAGE                     : San GB SSD
 MEMORY_TOTAL                : 8 GB
@@ -1457,7 +1165,7 @@
 PURCHASE_ORDER_ID           : 4917-4
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : R1-1-1-C
+PHYSICAL_LOCATION           : BOX-7
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -1475,7 +1183,7 @@
 PURCHASE_ORDER_ID           : 4915-74
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-4-A
+PHYSICAL_LOCATION           : R2-1-2-B
 CASE_SCRATCHES              : Scratches MinorScratches Minor
 PALMREST_COSMETICS          : Worn PalmrestWorn Palmrest</t>
   </si>
@@ -1494,7 +1202,7 @@
 PURCHASE_ORDER_ID           : 4915-96
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-4-D
+PHYSICAL_LOCATION           : R2-1-2-C
 CASE_SCRATCHES              : Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)- Spots in LCD
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -1534,7 +1242,7 @@
 PURCHASE_ORDER_ID           : 4915-126
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-2-A
+PHYSICAL_LOCATION           : R2-1-1-A
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest
@@ -1555,46 +1263,7 @@
 PURCHASE_ORDER_ID           : 4743-124
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-6-A
-CASE_SCRATCHES              : Scratches Minor
-LCD_COSMETICS               : Scratches on Screen(Minor)- Spots in LCD
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E5470 I5
-SERIAL                      : 6Y5BS72
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-6300U CPU @ 2.40GHz
-STORAGE                     : SAM GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 520
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 4909-22
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E5470 I5
-SERIAL                      : 44THQ72
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-6300U CPU @ 2.40GHz
-STORAGE                     : SAM GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 520
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 4909-31
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR
+PHYSICAL_LOCATION           : R2-1-3-C
 CASE_SCRATCHES              : Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)- Spots in LCD
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -1625,7 +1294,7 @@
 SERIAL                      : 5GZX0M2
 CODITION_CODE               : 4B
 PROCESSOR                   : Intel(R) Core(TM) i5-6500 CPU @ 3.20GHz
-STORAGE                     : Err GB SSD
+STORAGE                     : SK  GB SSD
 MEMORY_TOTAL                : 8 GB
 GRAPHICS                    :  HD Graphics 530
 SCREEN_SIZE                 : 0.0in
@@ -1652,7 +1321,7 @@
 BATTERY_HEALTH              : 
 PURCHASE_ORDER_ID           : 4961-5
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : Wholesale
+VIRTUAL_WAREHOUSE           : eBay
 PHYSICAL_LOCATION           : WHOLESALE PALLET
 CRACKS_AND_DENTS            : Major Dents
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
@@ -1671,29 +1340,10 @@
 BATTERY_HEALTH              : 
 PURCHASE_ORDER_ID           : 5031-3
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
+VIRTUAL_WAREHOUSE           : eBay
 PHYSICAL_LOCATION           : r2-1-1-e
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E7270 I7 T
-SERIAL                      : 5Q0WMF2
-CODITION_CODE               : 8B
-PROCESSOR                   : Intel(R) Core(TM) i7-6600U CPU @ 2.60GHz
-STORAGE                     : SK  GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 520
-SCREEN_SIZE                 : 
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 3 (Fair Health 40-59%)
-PURCHASE_ORDER_ID           : 5082-6
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR
-TOUCHPAD_FUNCTIONALITY      : Bad LCD(Liquid Damaged)n
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -1710,33 +1360,34 @@
 PURCHASE_ORDER_ID           : 4990-16
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : R2-1-2-C
+PHYSICAL_LOCATION           : R1-1-1-D
 CASE_SCRATCHES              : Scratches Minor</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE 5400 I5 GEN 8
-SERIAL                      : BJ2Y6Y2
-CODITION_CODE               : 4B
+SERIAL                      : J8GZ5Y2
+CODITION_CODE               : 8B
 PROCESSOR                   : Intel(R) Core(TM) i5-8265U CPU @ 1.60GHz
-STORAGE                     : 
+STORAGE                     : SK  GB SSD
 MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 4990-61
-SALES_ORDER_ID              : 23290-29
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-8-B
-CASE_SCRATCHES              : Scratches Minor
+GRAPHICS                    :  UHD Graphics 620
+SCREEN_SIZE                 : 14.0in
+RESOLUTION                  : 1920 x 1080
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
+PURCHASE_ORDER_ID           : 4990-62
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : REPAIR
+PHYSICAL_LOCATION           : REPAIR
+LCD_COSMETICS               : Scratches On Screen (Major)
+CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE 5400 I5 GEN 8
 SERIAL                      : 42PN2X2
-CODITION_CODE               : 4C
+CODITION_CODE               : 8B
 PROCESSOR                   : Intel(R) Core(TM) i5-8265U CPU @ 1.60GHz
 STORAGE                     : Mic GB SSD
 MEMORY_TOTAL                : 16 GB
@@ -1745,9 +1396,9 @@
 RESOLUTION                  : 1920 x 1080
 BATTERY_HEALTH              : 2 (Good Health 60-79%)
 PURCHASE_ORDER_ID           : 4990-67
-SALES_ORDER_ID              : 23290-4
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-3-A
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : REPAIR
+PHYSICAL_LOCATION           : REPAIR
 LCD_COSMETICS               : Scratches on Screen(Major)
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -1767,29 +1418,10 @@
 PURCHASE_ORDER_ID           : 4990-69
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-8-B
+PHYSICAL_LOCATION           : R1-1-3-A
 LCD_COSMETICS               : Scratches on Screen(Major)- Spots in LCD
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5400 I5 GEN 8
-SERIAL                      : 1YFL8Y2
-CODITION_CODE               : 3B
-PROCESSOR                   : Intel(R) Core(TM) i5-8265U CPU @ 1.60GHz
-STORAGE                     : NVM GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    :  UHD Graphics 620
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 4990-70
-SALES_ORDER_ID              : 23337-1
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-8-B
-CASE_SCRATCHES              : Scratches Minor
-ADDITIONAL_COMMENTS         : SKIPPED</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -1814,24 +1446,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5400 I5 GEN 8
-SERIAL                      : 44WHK13
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8365U CPU @ 1.60GHz
-STORAGE                     : ST5 GB HDD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  UHD Graphics 620
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 5155-1
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
-CASE_SCRATCHES              : Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : PRECISION 7720 I7 GEN 7
 SERIAL                      : GY5SNN2
 CODITION_CODE               : 8B
@@ -1853,25 +1467,6 @@
   <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE 5400 I5 GEN 8
-SERIAL                      : JLZGK13
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8365U CPU @ 1.60GHz
-STORAGE                     : SAM GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  UHD Graphics 620
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 3 (Fair Health  40-59%)
-PURCHASE_ORDER_ID           : 5155-11
-SALES_ORDER_ID              : 23290-19
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5400 I5 GEN 8
 SERIAL                      : DBYNP13
 CODITION_CODE               : 4B-
 PROCESSOR                   : Intel(R) Core(TM) i5-8365U CPU @ 1.60GHz
@@ -1884,7 +1479,7 @@
 PURCHASE_ORDER_ID           : 5155-14
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-6-B
+PHYSICAL_LOCATION           : R2-1-3-D
 CASE_SCRATCHES              : Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -1911,44 +1506,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5400 I5 GEN 8
-SERIAL                      : 6DCPP13
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8365U CPU @ 1.60GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  UHD Graphics 620
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5155-19
-SALES_ORDER_ID              : 23290-30
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-8-B
-CASE_SCRATCHES              : Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5490 I5 GEN 8
-SERIAL                      : J9135Q2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
-STORAGE                     : SK  GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  UHD Graphics 620
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 5155-147
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : SO6352
-CASE_SCRATCHES              : Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE 5490 I5 GEN 8
 SERIAL                      : 8BXZ4Q2
 CODITION_CODE               : 4C
@@ -1965,42 +1522,6 @@
 PHYSICAL_LOCATION           : R2-1-8-B
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 790 USFF I5
-SERIAL                      : 18Q78V1
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-2400S CPU @ 2.50GH
-STORAGE                     : 
-MEMORY_TOTAL                : 10 GB
-GRAPHICS                    :  HD Graphics
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5199-205
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W2-3-1-B
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 790 USFF I5
-SERIAL                      : 18698V1
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-2400S CPU @ 2.50GH
-STORAGE                     : 
-MEMORY_TOTAL                : 10 GB
-GRAPHICS                    :  HD Graphics
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5199-212
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W2-3-1-B
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -2021,24 +1542,6 @@
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
-    <t xml:space="preserve">MAKE                        : HP
-MODEL                       : ELITEBOOK 850 G3 I7
-SERIAL                      : 5CG74632ZV
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i7-6600U CPU @ 2.60GHz
-STORAGE                     : SAM GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    :  HD Graphics 520
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 5193-10
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : PRECISION 7520 I7
 SERIAL                      : D5TTPN2
@@ -2053,28 +1556,9 @@
 PURCHASE_ORDER_ID           : 5354-5
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : R2-1-6-B
+PHYSICAL_LOCATION           : R2-1-3-D
 CASE_SCRATCHES              : Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E7270 I7
-SERIAL                      : 1972RC2
-CODITION_CODE               : 5C
-PROCESSOR                   : Intel(R) Core(TM) i7-6600U CPU @ 2.60GHz
-STORAGE                     : HFM GB SSD
-MEMORY_TOTAL                : 4 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 12.6in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5397-3
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR
-CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -2092,9 +1576,26 @@
 PURCHASE_ORDER_ID           : 5390-5
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-4-C
+PHYSICAL_LOCATION           : R2-1-2-B
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : LENOVO
+MODEL                       : THINKPAD T450 I5
+SERIAL                      : 1S20BUS1H700PC089K5A
+CODITION_CODE               : 8B-
+PROCESSOR                   : Intel(R) Core(TM) i5-5300U CPU @ 2.30GHz
+STORAGE                     : 
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 14.0in
+RESOLUTION                  : 1024 x 768
+BATTERY_HEALTH              : 
+PURCHASE_ORDER_ID           : 5415-5
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : REPAIR
+PHYSICAL_LOCATION           : EBAY 7</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -2111,7 +1612,7 @@
 PURCHASE_ORDER_ID           : 5435-4
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W3-3-2-A
+PHYSICAL_LOCATION           : W1-2-4-C
 LCD_COSMETICS               : Scratches On Screen (Major)
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
@@ -2130,7 +1631,7 @@
 PURCHASE_ORDER_ID           : 5446-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : w2-4-2-a
+PHYSICAL_LOCATION           : W1-2-4-B
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -2147,8 +1648,8 @@
 BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 5446-9
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : r1-1-4-a
+VIRTUAL_WAREHOUSE           : REPAIR
+PHYSICAL_LOCATION           : REPAIR
 CASE_SCRATCHES              : Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -2185,7 +1686,7 @@
 PURCHASE_ORDER_ID           : 5503-8
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-8-B
+PHYSICAL_LOCATION           : R2-1-6-C
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -2223,7 +1724,7 @@
 PURCHASE_ORDER_ID           : 5519-5
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-6-A
+PHYSICAL_LOCATION           : R2-1-3-D
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -2242,7 +1743,7 @@
 PURCHASE_ORDER_ID           : 5499-7
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-C
+PHYSICAL_LOCATION           : R2-1-4-E
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -2252,7 +1753,7 @@
 SERIAL                      : 1s20N5S37Y00PF1YWW8N
 CODITION_CODE               : 6B
 PROCESSOR                   : Intel(R) Core(TM) i7-8665U CPU @ 1.90GHz
-STORAGE                     : Kin GB SSD
+STORAGE                     : SKH GB SSD
 MEMORY_TOTAL                : 32 GB
 GRAPHICS                    : 
 SCREEN_SIZE                 : 
@@ -2280,7 +1781,7 @@
 PURCHASE_ORDER_ID           : 5518-8
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-8-B
+PHYSICAL_LOCATION           : R2-1-6-C
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -2298,7 +1799,7 @@
 PURCHASE_ORDER_ID           : 5519-154
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : W2-4-1-A
+PHYSICAL_LOCATION           : w2-2-1-a
 KEYBOARD_COSMETICS          : Missing Feet
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
@@ -2313,11 +1814,11 @@
 GRAPHICS                    : 
 SCREEN_SIZE                 : 14.0in
 RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
+BATTERY_HEALTH              : 2 (Good Health 60-79%)
 PURCHASE_ORDER_ID           : 5555-2
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-6
+PHYSICAL_LOCATION           : R1-1-4-A
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -2335,7 +1836,7 @@
 PURCHASE_ORDER_ID           : 5560-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : r1-1-7-a</t>
+PHYSICAL_LOCATION           : R1-1-1-A</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : HP
@@ -2352,27 +1853,10 @@
 PURCHASE_ORDER_ID           : 5564-1
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-6-D
+PHYSICAL_LOCATION           : R1-1-2-D
 CRACKS_AND_DENTS            : Major Dents
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE E6540 I7
-SERIAL                      : 9YMHQ92
-CODITION_CODE               : 8B
-PROCESSOR                   : Intel(R) Core(TM) i7-4610M CPU @ 3.00GHz
-STORAGE                     : TOS GB HDD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5514-23
-SALES_ORDER_ID              : 20406-1
-VIRTUAL_WAREHOUSE           : TP
-PHYSICAL_LOCATION           : </t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -2389,7 +1873,7 @@
 PURCHASE_ORDER_ID           : 5514-86
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : Return Intransit</t>
+PHYSICAL_LOCATION           : R1-1-2-C</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : HP
@@ -2406,7 +1890,7 @@
 PURCHASE_ORDER_ID           : 5531-6
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-6-D
+PHYSICAL_LOCATION           : R1-1-2-D
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 CRACKS_AND_DENTS            : Minor Dents- Cracked LCD Bezel</t>
   </si>
@@ -2425,7 +1909,7 @@
 PURCHASE_ORDER_ID           : 5580-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000</t>
+PHYSICAL_LOCATION           : R1-1-4-B</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : HP
@@ -2442,28 +1926,9 @@
 PURCHASE_ORDER_ID           : 5586-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-6-A
+PHYSICAL_LOCATION           : R1-1-1-A
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 3440 I3
-SERIAL                      : GHCR512
-CODITION_CODE               : 7B
-PROCESSOR                   : Intel(R) Core(TM) i3-4010U CPU @ 1.70GHz
-STORAGE                     : 1-S GB HDD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1366 x 768
-BATTERY_HEALTH              : 4 (Poor Health 21-39%)
-PURCHASE_ORDER_ID           : 5494-183
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : TEST BATTERY CART
-MIC_FUNCTIONALITY           : _x000d_Bad Battery
-PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -2480,8 +1945,27 @@
 PURCHASE_ORDER_ID           : 5494-211
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-E
+PHYSICAL_LOCATION           : R2-1-7-C
 CRACKS_AND_DENTS            : Major Cracks
+LCD_COSMETICS               : Scratches on Screen(Minor)
+PALMREST_COSMETICS          : Worn Palmrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : LATITUDE 5590 I5 GEN 7
+SERIAL                      : BKJVRN2
+CODITION_CODE               : 3B
+PROCESSOR                   : Intel(R) Core(TM) i5-7300U CPU @ 2.60GHz
+STORAGE                     : 1-S GB SSD
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 15.6in
+RESOLUTION                  : 800 x 600
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
+PURCHASE_ORDER_ID           : 5494-218
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : BOX-27
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -2500,15 +1984,15 @@
 PURCHASE_ORDER_ID           : 5494-220
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-E
+PHYSICAL_LOCATION           : R2-1-7-C
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE 5590 I5 GEN 7
-SERIAL                      : 3DQZRN2
-CODITION_CODE               : 4B-
+SERIAL                      : 7WMQRN2
+CODITION_CODE               : 4B
 PROCESSOR                   : Intel(R) Core(TM) i5-7300U CPU @ 2.60GHz
 STORAGE                     : SK  GB SSD
 MEMORY_TOTAL                : 8 GB
@@ -2516,29 +2000,10 @@
 SCREEN_SIZE                 : 15.6in
 RESOLUTION                  : 800 x 600
 BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 5494-221
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-E
-LCD_COSMETICS               : Scratches on Screen(Minor)
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I5 GEN 7
-SERIAL                      : 7WMQRN2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-7300U CPU @ 2.60GHz
-STORAGE                     : SK  GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 800 x 600
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
 PURCHASE_ORDER_ID           : 5494-231
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-E
+PHYSICAL_LOCATION           : R2-1-7-C
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -2577,6 +2042,24 @@
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
 PHYSICAL_LOCATION           : BOX-1000
+PALMREST_COSMETICS          : Worn Palmrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : HP
+MODEL                       : ELITEBOOK 820 G1 I5
+SERIAL                      : cnu351bghw
+CODITION_CODE               : ITR
+PROCESSOR                   : Intel(R) Core(TM) i5-4200U CPU @ 1.60GHz
+STORAGE                     : 
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 12.6in
+RESOLUTION                  : 1366 x 768
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
+PURCHASE_ORDER_ID           : 5592-296
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : TP
+PHYSICAL_LOCATION           : Return Intransit
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -2594,7 +2077,7 @@
 PURCHASE_ORDER_ID           : 5564-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-6-D
+PHYSICAL_LOCATION           : R1-1-2-D
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
 CRACKS_AND_DENTS            : Minor Dents</t>
@@ -2614,7 +2097,7 @@
 PURCHASE_ORDER_ID           : 5564-6
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-6-D
+PHYSICAL_LOCATION           : R1-1-2-D
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 CRACKS_AND_DENTS            : Minor Dents</t>
   </si>
@@ -2633,7 +2116,7 @@
 PURCHASE_ORDER_ID           : 5564-7
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-6-D
+PHYSICAL_LOCATION           : R1-1-2-D
 CRACKS_AND_DENTS            : Major Dents
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
@@ -2652,7 +2135,7 @@
 PURCHASE_ORDER_ID           : 5564-10
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-6-C
+PHYSICAL_LOCATION           : R1-1-1-A
 CASE_SCRATCHES              : Scratches Minor</t>
   </si>
   <si>
@@ -2712,25 +2195,6 @@
   <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : OPTIPLEX 7050 SFF I5
-SERIAL                      : JQ358M2
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-6600 CPU @ 3.30GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5652-122
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : VERIFIED
-PHYSICAL_LOCATION           : RTV SORT
-TOUCHPAD_FUNCTIONALITY      : Major Cracked 
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 7050 SFF I5
 SERIAL                      : F152JH2
 CODITION_CODE               : 7C
 PROCESSOR                   : Intel(R) Core(TM) i5-6600 CPU @ 3.30GHz
@@ -2744,25 +2208,6 @@
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : REPAIR
 PHYSICAL_LOCATION           : 
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 7050 SFF I5
-SERIAL                      : C4C4JL2
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i5-6600 CPU @ 3.30GHz
-STORAGE                     : 
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 800 x 600
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5677-86
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : VERIFIED
-PHYSICAL_LOCATION           : RTV SORT
-TOUCHPAD_FUNCTIONALITY      : Major Dents
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -2798,25 +2243,7 @@
 PURCHASE_ORDER_ID           : 5766-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-3-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5580 I5
-SERIAL                      : 1SGWST2
-CODITION_CODE               : 8B
-PROCESSOR                   : Intel(R) Core(TM) i5-6300U CPU @ 2.40GHz
-STORAGE                     : SK  GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 3 (Fair Health 40-59%)
-PURCHASE_ORDER_ID           : 5721-6
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : REPAIR
-PHYSICAL_LOCATION           : REPAIR
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
+PHYSICAL_LOCATION           : R1-1-1-A</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -2833,7 +2260,7 @@
 PURCHASE_ORDER_ID           : 5787-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-6-C
+PHYSICAL_LOCATION           : R2-1-4-E
 PALMREST_COSMETICS          : Worn PalmrestWorn Palmrest</t>
   </si>
   <si>
@@ -2850,8 +2277,8 @@
 BATTERY_HEALTH              : 
 PURCHASE_ORDER_ID           : 5794-10
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : VERIFIED
-PHYSICAL_LOCATION           : RTV SORT
+VIRTUAL_WAREHOUSE           : REPAIR
+PHYSICAL_LOCATION           : REPAIR
 CRACKS_AND_DENTS            : Major Dents
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
@@ -2870,7 +2297,7 @@
 PURCHASE_ORDER_ID           : 5809-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-2-D
+PHYSICAL_LOCATION           : R1-1-1-A
 ADDITIONAL_COMMENTS         : SKIPPED</t>
   </si>
   <si>
@@ -2887,30 +2314,12 @@
 BATTERY_HEALTH              : 
 PURCHASE_ORDER_ID           : 5743-151
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : VERIFIED
-PHYSICAL_LOCATION           : RTV SORT
+VIRTUAL_WAREHOUSE           : eBay
+PHYSICAL_LOCATION           : w2-1-1-b
 TOUCHPAD_FUNCTIONALITY      : Major Dents 
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
-    <t xml:space="preserve">MAKE                        : LENOVO
-MODEL                       : THINKPAD T490 I7 GEN 8 T
-SERIAL                      : 1s20N3S4D303PF14U4F1
-CODITION_CODE               : 3B
-PROCESSOR                   : Intel(R) Core(TM) i7-8665U CPU @ 1.90GHz
-STORAGE                     : NVM GB SSD
-MEMORY_TOTAL                : 32 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 
-RESOLUTION                  : 1024 x 768
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 5832-3
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-2-D
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAKE                        : DELL
 MODEL                       : LATITUDE 7390 I5 GEN 8 T
 SERIAL                      : 78QX6Y2
@@ -2924,26 +2333,8 @@
 BATTERY_HEALTH              : 2 (Good Health 60-79%)
 PURCHASE_ORDER_ID           : 5834-15
 SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 7390 I5 GEN 8 T
-SERIAL                      : 93sssq2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
-STORAGE                     : SK  GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 5834-176
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
-PALMREST_COSMETICS          : Worn Palmrest</t>
+VIRTUAL_WAREHOUSE           : REPAIR
+PHYSICAL_LOCATION           : REPAIR</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -2960,25 +2351,7 @@
 PURCHASE_ORDER_ID           : 5853-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : Return Intransit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5401 I5 GEN 9
-SERIAL                      : cw8dw33
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-9400H CPU @ 2.50GHz
-STORAGE                     : TEA GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 800 x 600
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 5885-3
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : r2-1-3-c
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
+PHYSICAL_LOCATION           : R1-1-1-B</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -3032,7 +2405,7 @@
 PURCHASE_ORDER_ID           : 5973-3
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-27
+PHYSICAL_LOCATION           : R1-1-1-B
 ADDITIONAL_COMMENTS         : SKIPPED</t>
   </si>
   <si>
@@ -3052,61 +2425,6 @@
 VIRTUAL_WAREHOUSE           : EV1
 PHYSICAL_LOCATION           : W2-3-1-B
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : HP
-MODEL                       : ELITEBOOK 850 G3 I7
-SERIAL                      : 5CG81554QW
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i7-6600U CPU @ 2.60GHz
-STORAGE                     : INT GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 6010-3
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-4-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : HP
-MODEL                       : ELITEBOOK 850 G3 I7
-SERIAL                      : 
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i7-6500U CPU @ 2.50GHz
-STORAGE                     : INT GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 6015-1
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-4-A
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5591 I7
-SERIAL                      : 5KT5WT2
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i7-8850H CPU @ 2.60GHz
-STORAGE                     : TOS GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 5 (Bad Health 0-20%)
-PURCHASE_ORDER_ID           : 6023-2
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-7-C
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-LCD_COSMETICS               : Scratches on Screen(Minor)
-PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -3123,7 +2441,7 @@
 PURCHASE_ORDER_ID           : 6023-13
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-7-C
+PHYSICAL_LOCATION           : R2-1-7-D
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)
 PALMREST_COSMETICS          : Worn Palmrest</t>
@@ -3143,122 +2461,7 @@
 PURCHASE_ORDER_ID           : 6023-14
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-8
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-LCD_COSMETICS               : Scratches on Screen(Minor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5591 I5 GEN 8 T
-SERIAL                      : 183D7S2
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i5-8400H CPU @ 2.50GHz
-STORAGE                     : SK  GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 6023-17
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-LCD_COSMETICS               : Scratches on Screen(Minor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I7 GEN 8
-SERIAL                      : d9jb7y2
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
-STORAGE                     : NVM GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 6023-33
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-7-C
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I7 GEN 8
-SERIAL                      : 1w4b7y2
-CODITION_CODE               : 7B
-PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
-STORAGE                     : NVM GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 4 (Poor Health 21-39%)
-PURCHASE_ORDER_ID           : 6023-39
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : TEST RACK 5
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I7 GEN 8
-SERIAL                      : 41QB7Y2
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
-STORAGE                     : NVM GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 800 x 600
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 6023-46
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-7-E
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I7 GEN 8
-SERIAL                      : DRMC7Y2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
-STORAGE                     : NVM GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 6023-49
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-LCD_COSMETICS               : Scratches on Screen(Minor)
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I7 GEN 8 T
-SERIAL                      : 1P2NSN2
-CODITION_CODE               : 4B-
-PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
-STORAGE                     : TOS GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 
-RESOLUTION                  : 800 x 600
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 6023-55
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
+PHYSICAL_LOCATION           : R1-1-6-D
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 LCD_COSMETICS               : Scratches on Screen(Minor)</t>
   </si>
@@ -3277,7 +2480,7 @@
 PURCHASE_ORDER_ID           : 6023-72
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R1-1-7-B
+PHYSICAL_LOCATION           : R2-1-7-D
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 COMPUTER_FEET               : Minor Crackes
 LAN_FUNCTIONALITY           : Minor Dents 
@@ -3298,26 +2501,26 @@
 PURCHASE_ORDER_ID           : 6043-1
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : MAKEREADY PALLET 3
+PHYSICAL_LOCATION           : w2-1-1-b
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : OPTIPLEX 7050 MT I7
-SERIAL                      : J08BCM2
-CODITION_CODE               : 4C
-PROCESSOR                   : Intel(R) Core(TM) i7-6700 CPU @ 3.40GHz
-STORAGE                     : TOS GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 0.0in
-RESOLUTION                  : 800 x 600
-BATTERY_HEALTH              : 
-PURCHASE_ORDER_ID           : 5999-5
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : eBay
-PHYSICAL_LOCATION           : 
-CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
+MODEL                       : LATITUDE 5490 I7 GEN 8
+SERIAL                      : 6WG3RV2
+CODITION_CODE               : 4B-
+PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
+STORAGE                     : 1-S GB SSD
+MEMORY_TOTAL                : 16 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 14.0in
+RESOLUTION                  : 1366 x 768
+BATTERY_HEALTH              : 2 (Good Health 60-79%)
+PURCHASE_ORDER_ID           : 5879-16
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : R2-1-4-A
+PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -3332,9 +2535,9 @@
 RESOLUTION                  : 1920 x 1080
 BATTERY_HEALTH              : 2 (Good Health 60-79%)
 PURCHASE_ORDER_ID           : 5879-29
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-2-B
+SALES_ORDER_ID              : 24197-9
+VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : R2-1-1-A
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -3352,7 +2555,7 @@
 PURCHASE_ORDER_ID           : 5879-42
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-6-A
+PHYSICAL_LOCATION           : R1-1-5-C
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -3370,7 +2573,7 @@
 PURCHASE_ORDER_ID           : 5879-55
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-2-C
+PHYSICAL_LOCATION           : R2-1-1-B
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -3388,26 +2591,27 @@
 PURCHASE_ORDER_ID           : 5879-68
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-2-B
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5490 I5 GEN 8
-SERIAL                      : 63ctzq2
-CODITION_CODE               : 3B
-PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
-STORAGE                     : SAM GB SSD
-MEMORY_TOTAL                : 16 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 5879-73
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : R2-1-6-E
-PALMREST_COSMETICS          : Worn Palmrest</t>
+PHYSICAL_LOCATION           : R2-1-1-A
+PALMREST_COSMETICS          : Worn Palmrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : LATITUDE 5501 I7 GEN 9
+SERIAL                      : 5CH8P13
+CODITION_CODE               : 4B
+PROCESSOR                   : Intel(R) Core(TM) i7-9850H CPU @ 2.60GHz
+STORAGE                     : 1-S GB SSD
+MEMORY_TOTAL                : 32 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 15.6in
+RESOLUTION                  : 1920 x 1080
+BATTERY_HEALTH              : 2 (Good Health 60-79%)
+PURCHASE_ORDER_ID           : 5879-168
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : BOX-27
+COMPUTER_FEET               : Missing Feet
+CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -3428,20 +2632,20 @@
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5490 I5 GEN 8
-SERIAL                      : 59YXRQ2
-CODITION_CODE               : 4B
+MODEL                       : LATITUDE 5490 I5 GEN 8 T
+SERIAL                      : jn7ktq2
+CODITION_CODE               : 3B
 PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
 STORAGE                     : TOS GB SSD
 MEMORY_TOTAL                : 8 GB
 GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
-PURCHASE_ORDER_ID           : 5940-10
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
+SCREEN_SIZE                 : 
+RESOLUTION                  : 1920 x 1080
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
+PURCHASE_ORDER_ID           : 5940-12
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : R2-1-4-A
 CASE_SCRATCHES              : Scuffs- Scratches Minor</t>
   </si>
   <si>
@@ -3459,7 +2663,7 @@
 PURCHASE_ORDER_ID           : 5940-50
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
+PHYSICAL_LOCATION           : R2-1-3-E
 CASE_SCRATCHES              : Scuffs- Scratches Minor
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
@@ -3478,29 +2682,9 @@
 PURCHASE_ORDER_ID           : 5940-57
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-8
+PHYSICAL_LOCATION           : R1-1-7-D
 LCD_COSMETICS               : Scratches On Screen (Major)
 CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5490 I5 GEN 8
-SERIAL                      : C9BNPV2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
-STORAGE                     : SK  GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 14.0in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 2 (Good Health 60-79%)
-PURCHASE_ORDER_ID           : 5940-70
-SALES_ORDER_ID              : 0-0
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-1000
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-LCD_COSMETICS               : Scratches on Screen(Minor)- Spots in LCD
 PALMREST_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
@@ -3518,28 +2702,48 @@
 PURCHASE_ORDER_ID           : 5940-112
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : TEST STATION 5
+CASE_SCRATCHES              : Scuffs- Scratches Minor
+PALMREST_COSMETICS          : Worn Palmrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : LATITUDE 5590 I5 GEN 8
+SERIAL                      : 84g3qq2
+CODITION_CODE               : 4B
+PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
+STORAGE                     : 1-S GB SSD
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 15.6in
+RESOLUTION                  : 1920 x 1080
+BATTERY_HEALTH              : 2 (Good Health 60-79%)
+PURCHASE_ORDER_ID           : 5940-124
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : BOX-27
+CASE_SCRATCHES              : Scuffs- Scratches Minor
+PALMREST_COSMETICS          : Worn Palmrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : LATITUDE 5590 I5 GEN 8 T
+SERIAL                      : DQN4RQ2
+CODITION_CODE               : 4B-
+PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
+STORAGE                     : 
+MEMORY_TOTAL                : 16 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 
+RESOLUTION                  : 1920 x 1080
+BATTERY_HEALTH              : 1 (Excellent Health 80-100%)
+PURCHASE_ORDER_ID           : 6124-2
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : EV1
 PHYSICAL_LOCATION           : BOX-1000
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKE                        : DELL
-MODEL                       : LATITUDE 5590 I5 GEN 8
-SERIAL                      : 25r1qq2
-CODITION_CODE               : 4B
-PROCESSOR                   : Intel(R) Core(TM) i5-8350U CPU @ 1.70GHz
-STORAGE                     : TOS GB SSD
-MEMORY_TOTAL                : 8 GB
-GRAPHICS                    : 
-SCREEN_SIZE                 : 15.6in
-RESOLUTION                  : 1920 x 1080
-BATTERY_HEALTH              : 3 (Fair Health 40-59%)
-PURCHASE_ORDER_ID           : 5940-126
-SALES_ORDER_ID              : 22147-1
-VIRTUAL_WAREHOUSE           : EV1
-PHYSICAL_LOCATION           : BOX-41
-CASE_SCRATCHES              : Scuffs- Scratches Minor
-PALMREST_COSMETICS          : Worn Palmrest</t>
+LCD_COSMETICS               : Scuffs- Scratches Minor
+CRACKS_AND_DENTS            : Scratches on Screen(Minor)
+KEYBOARD_COSMETICS          : Worn Palmrest</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE                        : DELL
@@ -3556,8 +2760,27 @@
 PURCHASE_ORDER_ID           : 6241-103
 SALES_ORDER_ID              : 0-0
 VIRTUAL_WAREHOUSE           : EV1
+PHYSICAL_LOCATION           : R2-1-3-E
+LCD_COSMETICS               : Scuffs- Scratches Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                        : DELL
+MODEL                       : LATITUDE 7490 I7 GEN 8
+SERIAL                      : 1WVRNV2
+CODITION_CODE               : 4B
+PROCESSOR                   : Intel(R) Core(TM) i7-8650U CPU @ 1.90GHz
+STORAGE                     : 
+MEMORY_TOTAL                : 8 GB
+GRAPHICS                    : 
+SCREEN_SIZE                 : 
+RESOLUTION                  : 800 x 600
+BATTERY_HEALTH              : 2 (Good Health 60-79%)
+PURCHASE_ORDER_ID           : 6337-144
+SALES_ORDER_ID              : 0-0
+VIRTUAL_WAREHOUSE           : EV1
 PHYSICAL_LOCATION           : BOX-1000
-LCD_COSMETICS               : Scuffs- Scratches Minor</t>
+LCD_COSMETICS               : Scuffs- Scratches Minor
+KEYBOARD_COSMETICS          : Worn Palmrest</t>
   </si>
 </sst>
 </file>
@@ -3609,10 +2832,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A190" headerRowCount="1">
-  <autoFilter ref="A1:A190"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A148" headerRowCount="1">
+  <autoFilter ref="A1:A148"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="INVENTORY_DATA_02-21-2023"/>
+    <tableColumn id="1" name="INVENTORY_DATA_04-16-2023"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3620,7 +2843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A190"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4369,216 +3592,6 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>
